--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/F2-F2rl3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/F2-F2rl3.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.4135123333333334</v>
+        <v>0.7137273333333334</v>
       </c>
       <c r="H2">
-        <v>1.240537</v>
+        <v>2.141182</v>
       </c>
       <c r="I2">
-        <v>0.212110616362585</v>
+        <v>0.3473329658610935</v>
       </c>
       <c r="J2">
-        <v>0.212110616362585</v>
+        <v>0.3473329658610935</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.596407333333333</v>
+        <v>5.181113</v>
       </c>
       <c r="N2">
-        <v>13.789222</v>
+        <v>15.543339</v>
       </c>
       <c r="O2">
-        <v>0.7081273002276354</v>
+        <v>0.7563637328020785</v>
       </c>
       <c r="P2">
-        <v>0.7081273002276355</v>
+        <v>0.7563637328020786</v>
       </c>
       <c r="Q2">
-        <v>1.900671121357111</v>
+        <v>3.697901965188667</v>
       </c>
       <c r="R2">
-        <v>17.106040092214</v>
+        <v>33.281117686698</v>
       </c>
       <c r="S2">
-        <v>0.150201318114457</v>
+        <v>0.2627100585839136</v>
       </c>
       <c r="T2">
-        <v>0.150201318114457</v>
+        <v>0.2627100585839136</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.4135123333333334</v>
+        <v>0.7137273333333334</v>
       </c>
       <c r="H3">
-        <v>1.240537</v>
+        <v>2.141182</v>
       </c>
       <c r="I3">
-        <v>0.212110616362585</v>
+        <v>0.3473329658610935</v>
       </c>
       <c r="J3">
-        <v>0.212110616362585</v>
+        <v>0.3473329658610935</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>1.269266</v>
       </c>
       <c r="O3">
-        <v>0.06518148056871736</v>
+        <v>0.06176451338279137</v>
       </c>
       <c r="P3">
-        <v>0.06518148056871738</v>
+        <v>0.06176451338279138</v>
       </c>
       <c r="Q3">
-        <v>0.1749523817602223</v>
+        <v>0.3019699458235556</v>
       </c>
       <c r="R3">
-        <v>1.574571435842</v>
+        <v>2.717729512412</v>
       </c>
       <c r="S3">
-        <v>0.0138256840188565</v>
+        <v>0.02145285161821213</v>
       </c>
       <c r="T3">
-        <v>0.0138256840188565</v>
+        <v>0.02145285161821213</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.4135123333333334</v>
+        <v>0.7137273333333334</v>
       </c>
       <c r="H4">
-        <v>1.240537</v>
+        <v>2.141182</v>
       </c>
       <c r="I4">
-        <v>0.212110616362585</v>
+        <v>0.3473329658610935</v>
       </c>
       <c r="J4">
-        <v>0.212110616362585</v>
+        <v>0.3473329658610935</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.249793</v>
+        <v>0.273918</v>
       </c>
       <c r="N4">
-        <v>0.749379</v>
+        <v>0.821754</v>
       </c>
       <c r="O4">
-        <v>0.03848336970115394</v>
+        <v>0.03998786379715705</v>
       </c>
       <c r="P4">
-        <v>0.03848336970115394</v>
+        <v>0.03998786379715705</v>
       </c>
       <c r="Q4">
-        <v>0.1032924862803334</v>
+        <v>0.195502763692</v>
       </c>
       <c r="R4">
-        <v>0.9296323765230002</v>
+        <v>1.759524873228</v>
       </c>
       <c r="S4">
-        <v>0.00816273126702099</v>
+        <v>0.01388910333111601</v>
       </c>
       <c r="T4">
-        <v>0.00816273126702099</v>
+        <v>0.01388910333111601</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.4135123333333334</v>
+        <v>0.7137273333333334</v>
       </c>
       <c r="H5">
-        <v>1.240537</v>
+        <v>2.141182</v>
       </c>
       <c r="I5">
-        <v>0.212110616362585</v>
+        <v>0.3473329658610935</v>
       </c>
       <c r="J5">
-        <v>0.212110616362585</v>
+        <v>0.3473329658610935</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.5239116666666667</v>
+        <v>0.183577</v>
       </c>
       <c r="N5">
-        <v>1.571735</v>
+        <v>0.5507310000000001</v>
       </c>
       <c r="O5">
-        <v>0.0807143769404309</v>
+        <v>0.02679945119448411</v>
       </c>
       <c r="P5">
-        <v>0.08071437694043092</v>
+        <v>0.02679945119448412</v>
       </c>
       <c r="Q5">
-        <v>0.2166439357438889</v>
+        <v>0.1310239226713334</v>
       </c>
       <c r="R5">
-        <v>1.949795421695</v>
+        <v>1.179215304042</v>
       </c>
       <c r="S5">
-        <v>0.01712037624215682</v>
+        <v>0.009308332866829793</v>
       </c>
       <c r="T5">
-        <v>0.01712037624215682</v>
+        <v>0.009308332866829796</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.4135123333333334</v>
+        <v>0.7137273333333334</v>
       </c>
       <c r="H6">
-        <v>1.240537</v>
+        <v>2.141182</v>
       </c>
       <c r="I6">
-        <v>0.212110616362585</v>
+        <v>0.3473329658610935</v>
       </c>
       <c r="J6">
-        <v>0.212110616362585</v>
+        <v>0.3473329658610935</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.4475040000000001</v>
+        <v>0.457755</v>
       </c>
       <c r="N6">
-        <v>1.342512</v>
+        <v>1.373265</v>
       </c>
       <c r="O6">
-        <v>0.06894293224688118</v>
+        <v>0.0668252710390249</v>
       </c>
       <c r="P6">
-        <v>0.06894293224688119</v>
+        <v>0.06682527103902491</v>
       </c>
       <c r="Q6">
-        <v>0.1850484232160001</v>
+        <v>0.32671225547</v>
       </c>
       <c r="R6">
-        <v>1.665435808944</v>
+        <v>2.94041029923</v>
       </c>
       <c r="S6">
-        <v>0.0146235278527299</v>
+        <v>0.02321061958445596</v>
       </c>
       <c r="T6">
-        <v>0.01462352785272991</v>
+        <v>0.02321061958445596</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.4135123333333334</v>
+        <v>0.7137273333333334</v>
       </c>
       <c r="H7">
-        <v>1.240537</v>
+        <v>2.141182</v>
       </c>
       <c r="I7">
-        <v>0.212110616362585</v>
+        <v>0.3473329658610935</v>
       </c>
       <c r="J7">
-        <v>0.212110616362585</v>
+        <v>0.3473329658610935</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.250229</v>
+        <v>0.3305766666666667</v>
       </c>
       <c r="N7">
-        <v>0.7506870000000001</v>
+        <v>0.99173</v>
       </c>
       <c r="O7">
-        <v>0.03855054031518117</v>
+        <v>0.04825916778446416</v>
       </c>
       <c r="P7">
-        <v>0.03855054031518117</v>
+        <v>0.04825916778446416</v>
       </c>
       <c r="Q7">
-        <v>0.1034727776576667</v>
+        <v>0.2359416027622223</v>
       </c>
       <c r="R7">
-        <v>0.9312549989190003</v>
+        <v>2.12347442486</v>
       </c>
       <c r="S7">
-        <v>0.008176978867363759</v>
+        <v>0.01676199987656607</v>
       </c>
       <c r="T7">
-        <v>0.00817697886736376</v>
+        <v>0.01676199987656607</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>1.811317</v>
       </c>
       <c r="I8">
-        <v>0.3097042371956889</v>
+        <v>0.2938237411507374</v>
       </c>
       <c r="J8">
-        <v>0.3097042371956889</v>
+        <v>0.2938237411507374</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.596407333333333</v>
+        <v>5.181113</v>
       </c>
       <c r="N8">
-        <v>13.789222</v>
+        <v>15.543339</v>
       </c>
       <c r="O8">
-        <v>0.7081273002276354</v>
+        <v>0.7563637328020785</v>
       </c>
       <c r="P8">
-        <v>0.7081273002276355</v>
+        <v>0.7563637328020786</v>
       </c>
       <c r="Q8">
-        <v>2.775183580597111</v>
+        <v>3.128212685273667</v>
       </c>
       <c r="R8">
-        <v>24.976652225374</v>
+        <v>28.153914167463</v>
       </c>
       <c r="S8">
-        <v>0.2193100253544424</v>
+        <v>0.2222376216426435</v>
       </c>
       <c r="T8">
-        <v>0.2193100253544424</v>
+        <v>0.2222376216426435</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>1.811317</v>
       </c>
       <c r="I9">
-        <v>0.3097042371956889</v>
+        <v>0.2938237411507374</v>
       </c>
       <c r="J9">
-        <v>0.3097042371956889</v>
+        <v>0.2938237411507374</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>1.269266</v>
       </c>
       <c r="O9">
-        <v>0.06518148056871736</v>
+        <v>0.06176451338279137</v>
       </c>
       <c r="P9">
-        <v>0.06518148056871738</v>
+        <v>0.06176451338279138</v>
       </c>
       <c r="Q9">
         <v>0.2554492314802222</v>
@@ -1013,10 +1013,10 @@
         <v>2.299043083322</v>
       </c>
       <c r="S9">
-        <v>0.02018698071882023</v>
+        <v>0.01814788039248655</v>
       </c>
       <c r="T9">
-        <v>0.02018698071882023</v>
+        <v>0.01814788039248655</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>1.811317</v>
       </c>
       <c r="I10">
-        <v>0.3097042371956889</v>
+        <v>0.2938237411507374</v>
       </c>
       <c r="J10">
-        <v>0.3097042371956889</v>
+        <v>0.2938237411507374</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.249793</v>
+        <v>0.273918</v>
       </c>
       <c r="N10">
-        <v>0.749379</v>
+        <v>0.821754</v>
       </c>
       <c r="O10">
-        <v>0.03848336970115394</v>
+        <v>0.03998786379715705</v>
       </c>
       <c r="P10">
-        <v>0.03848336970115394</v>
+        <v>0.03998786379715705</v>
       </c>
       <c r="Q10">
-        <v>0.1508181024603333</v>
+        <v>0.165384110002</v>
       </c>
       <c r="R10">
-        <v>1.357362922143</v>
+        <v>1.488456990018</v>
       </c>
       <c r="S10">
-        <v>0.01191846265801557</v>
+        <v>0.01174938374150682</v>
       </c>
       <c r="T10">
-        <v>0.01191846265801557</v>
+        <v>0.01174938374150682</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>1.811317</v>
       </c>
       <c r="I11">
-        <v>0.3097042371956889</v>
+        <v>0.2938237411507374</v>
       </c>
       <c r="J11">
-        <v>0.3097042371956889</v>
+        <v>0.2938237411507374</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.5239116666666667</v>
+        <v>0.183577</v>
       </c>
       <c r="N11">
-        <v>1.571735</v>
+        <v>0.5507310000000001</v>
       </c>
       <c r="O11">
-        <v>0.0807143769404309</v>
+        <v>0.02679945119448411</v>
       </c>
       <c r="P11">
-        <v>0.08071437694043092</v>
+        <v>0.02679945119448412</v>
       </c>
       <c r="Q11">
-        <v>0.3163233694438889</v>
+        <v>0.1108387136363334</v>
       </c>
       <c r="R11">
-        <v>2.846910324995</v>
+        <v>0.9975484227270002</v>
       </c>
       <c r="S11">
-        <v>0.02499758454106146</v>
+        <v>0.007874315010749922</v>
       </c>
       <c r="T11">
-        <v>0.02499758454106146</v>
+        <v>0.007874315010749923</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,40 +1169,40 @@
         <v>1.811317</v>
       </c>
       <c r="I12">
-        <v>0.3097042371956889</v>
+        <v>0.2938237411507374</v>
       </c>
       <c r="J12">
-        <v>0.3097042371956889</v>
+        <v>0.2938237411507374</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.4475040000000001</v>
+        <v>0.457755</v>
       </c>
       <c r="N12">
-        <v>1.342512</v>
+        <v>1.373265</v>
       </c>
       <c r="O12">
-        <v>0.06894293224688118</v>
+        <v>0.0668252710390249</v>
       </c>
       <c r="P12">
-        <v>0.06894293224688119</v>
+        <v>0.06682527103902491</v>
       </c>
       <c r="Q12">
-        <v>0.270190534256</v>
+        <v>0.276379804445</v>
       </c>
       <c r="R12">
-        <v>2.431714808304001</v>
+        <v>2.487418240005</v>
       </c>
       <c r="S12">
-        <v>0.0213519182415544</v>
+        <v>0.01963485114009832</v>
       </c>
       <c r="T12">
-        <v>0.0213519182415544</v>
+        <v>0.01963485114009833</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>1.811317</v>
       </c>
       <c r="I13">
-        <v>0.3097042371956889</v>
+        <v>0.2938237411507374</v>
       </c>
       <c r="J13">
-        <v>0.3097042371956889</v>
+        <v>0.2938237411507374</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.250229</v>
+        <v>0.3305766666666667</v>
       </c>
       <c r="N13">
-        <v>0.7506870000000001</v>
+        <v>0.99173</v>
       </c>
       <c r="O13">
-        <v>0.03855054031518117</v>
+        <v>0.04825916778446416</v>
       </c>
       <c r="P13">
-        <v>0.03855054031518117</v>
+        <v>0.04825916778446416</v>
       </c>
       <c r="Q13">
-        <v>0.1510813471976667</v>
+        <v>0.1995930453788889</v>
       </c>
       <c r="R13">
-        <v>1.359732124779</v>
+        <v>1.79633740841</v>
       </c>
       <c r="S13">
-        <v>0.01193926568179484</v>
+        <v>0.0141796892232524</v>
       </c>
       <c r="T13">
-        <v>0.01193926568179484</v>
+        <v>0.0141796892232524</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.3011906666666667</v>
+        <v>0.09300700000000001</v>
       </c>
       <c r="H14">
-        <v>0.903572</v>
+        <v>0.279021</v>
       </c>
       <c r="I14">
-        <v>0.1544953627727134</v>
+        <v>0.04526153847152096</v>
       </c>
       <c r="J14">
-        <v>0.1544953627727134</v>
+        <v>0.04526153847152095</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.596407333333333</v>
+        <v>5.181113</v>
       </c>
       <c r="N14">
-        <v>13.789222</v>
+        <v>15.543339</v>
       </c>
       <c r="O14">
-        <v>0.7081273002276354</v>
+        <v>0.7563637328020785</v>
       </c>
       <c r="P14">
-        <v>0.7081273002276355</v>
+        <v>0.7563637328020786</v>
       </c>
       <c r="Q14">
-        <v>1.384394988998222</v>
+        <v>0.481879776791</v>
       </c>
       <c r="R14">
-        <v>12.459554900984</v>
+        <v>4.336917991119</v>
       </c>
       <c r="S14">
-        <v>0.1094023841379307</v>
+        <v>0.03423418619068447</v>
       </c>
       <c r="T14">
-        <v>0.1094023841379307</v>
+        <v>0.03423418619068447</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.3011906666666667</v>
+        <v>0.09300700000000001</v>
       </c>
       <c r="H15">
-        <v>0.903572</v>
+        <v>0.279021</v>
       </c>
       <c r="I15">
-        <v>0.1544953627727134</v>
+        <v>0.04526153847152096</v>
       </c>
       <c r="J15">
-        <v>0.1544953627727134</v>
+        <v>0.04526153847152095</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>1.269266</v>
       </c>
       <c r="O15">
-        <v>0.06518148056871736</v>
+        <v>0.06176451338279137</v>
       </c>
       <c r="P15">
-        <v>0.06518148056871738</v>
+        <v>0.06176451338279138</v>
       </c>
       <c r="Q15">
-        <v>0.1274303575724444</v>
+        <v>0.03935020762066667</v>
       </c>
       <c r="R15">
-        <v>1.146873218152</v>
+        <v>0.354151868586</v>
       </c>
       <c r="S15">
-        <v>0.01007023648652656</v>
+        <v>0.002795556898649982</v>
       </c>
       <c r="T15">
-        <v>0.01007023648652656</v>
+        <v>0.002795556898649982</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.3011906666666667</v>
+        <v>0.09300700000000001</v>
       </c>
       <c r="H16">
-        <v>0.903572</v>
+        <v>0.279021</v>
       </c>
       <c r="I16">
-        <v>0.1544953627727134</v>
+        <v>0.04526153847152096</v>
       </c>
       <c r="J16">
-        <v>0.1544953627727134</v>
+        <v>0.04526153847152095</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.249793</v>
+        <v>0.273918</v>
       </c>
       <c r="N16">
-        <v>0.749379</v>
+        <v>0.821754</v>
       </c>
       <c r="O16">
-        <v>0.03848336970115394</v>
+        <v>0.03998786379715705</v>
       </c>
       <c r="P16">
-        <v>0.03848336970115394</v>
+        <v>0.03998786379715705</v>
       </c>
       <c r="Q16">
-        <v>0.07523532019866667</v>
+        <v>0.025476291426</v>
       </c>
       <c r="R16">
-        <v>0.677117881788</v>
+        <v>0.229286622834</v>
       </c>
       <c r="S16">
-        <v>0.005945502162696226</v>
+        <v>0.001809912235648964</v>
       </c>
       <c r="T16">
-        <v>0.005945502162696226</v>
+        <v>0.001809912235648964</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.3011906666666667</v>
+        <v>0.09300700000000001</v>
       </c>
       <c r="H17">
-        <v>0.903572</v>
+        <v>0.279021</v>
       </c>
       <c r="I17">
-        <v>0.1544953627727134</v>
+        <v>0.04526153847152096</v>
       </c>
       <c r="J17">
-        <v>0.1544953627727134</v>
+        <v>0.04526153847152095</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.5239116666666667</v>
+        <v>0.183577</v>
       </c>
       <c r="N17">
-        <v>1.571735</v>
+        <v>0.5507310000000001</v>
       </c>
       <c r="O17">
-        <v>0.0807143769404309</v>
+        <v>0.02679945119448411</v>
       </c>
       <c r="P17">
-        <v>0.08071437694043092</v>
+        <v>0.02679945119448412</v>
       </c>
       <c r="Q17">
-        <v>0.1577973041577778</v>
+        <v>0.017073946039</v>
       </c>
       <c r="R17">
-        <v>1.42017573742</v>
+        <v>0.153665514351</v>
       </c>
       <c r="S17">
-        <v>0.01246999694638541</v>
+        <v>0.001212984391254791</v>
       </c>
       <c r="T17">
-        <v>0.01246999694638541</v>
+        <v>0.001212984391254791</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.3011906666666667</v>
+        <v>0.09300700000000001</v>
       </c>
       <c r="H18">
-        <v>0.903572</v>
+        <v>0.279021</v>
       </c>
       <c r="I18">
-        <v>0.1544953627727134</v>
+        <v>0.04526153847152096</v>
       </c>
       <c r="J18">
-        <v>0.1544953627727134</v>
+        <v>0.04526153847152095</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>0.4475040000000001</v>
+        <v>0.457755</v>
       </c>
       <c r="N18">
-        <v>1.342512</v>
+        <v>1.373265</v>
       </c>
       <c r="O18">
-        <v>0.06894293224688118</v>
+        <v>0.0668252710390249</v>
       </c>
       <c r="P18">
-        <v>0.06894293224688119</v>
+        <v>0.06682527103902491</v>
       </c>
       <c r="Q18">
-        <v>0.134784028096</v>
+        <v>0.042574419285</v>
       </c>
       <c r="R18">
-        <v>1.213056252864</v>
+        <v>0.383169773565</v>
       </c>
       <c r="S18">
-        <v>0.01065136332809651</v>
+        <v>0.003024614576002641</v>
       </c>
       <c r="T18">
-        <v>0.01065136332809651</v>
+        <v>0.003024614576002641</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.3011906666666667</v>
+        <v>0.09300700000000001</v>
       </c>
       <c r="H19">
-        <v>0.903572</v>
+        <v>0.279021</v>
       </c>
       <c r="I19">
-        <v>0.1544953627727134</v>
+        <v>0.04526153847152096</v>
       </c>
       <c r="J19">
-        <v>0.1544953627727134</v>
+        <v>0.04526153847152095</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.250229</v>
+        <v>0.3305766666666667</v>
       </c>
       <c r="N19">
-        <v>0.7506870000000001</v>
+        <v>0.99173</v>
       </c>
       <c r="O19">
-        <v>0.03855054031518117</v>
+        <v>0.04825916778446416</v>
       </c>
       <c r="P19">
-        <v>0.03855054031518117</v>
+        <v>0.04825916778446416</v>
       </c>
       <c r="Q19">
-        <v>0.07536663932933334</v>
+        <v>0.03074594403666667</v>
       </c>
       <c r="R19">
-        <v>0.6782997539640001</v>
+        <v>0.27671349633</v>
       </c>
       <c r="S19">
-        <v>0.00595587971107803</v>
+        <v>0.002184284179280109</v>
       </c>
       <c r="T19">
-        <v>0.005955879711078031</v>
+        <v>0.002184284179280109</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.4246063333333334</v>
+        <v>0.2640916666666667</v>
       </c>
       <c r="H20">
-        <v>1.273819</v>
+        <v>0.792275</v>
       </c>
       <c r="I20">
-        <v>0.2178012693086717</v>
+        <v>0.1285193064053396</v>
       </c>
       <c r="J20">
-        <v>0.2178012693086717</v>
+        <v>0.1285193064053396</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.596407333333333</v>
+        <v>5.181113</v>
       </c>
       <c r="N20">
-        <v>13.789222</v>
+        <v>15.543339</v>
       </c>
       <c r="O20">
-        <v>0.7081273002276354</v>
+        <v>0.7563637328020785</v>
       </c>
       <c r="P20">
-        <v>0.7081273002276355</v>
+        <v>0.7563637328020786</v>
       </c>
       <c r="Q20">
-        <v>1.951663664313111</v>
+        <v>1.368288767358333</v>
       </c>
       <c r="R20">
-        <v>17.564972978818</v>
+        <v>12.314598906225</v>
       </c>
       <c r="S20">
-        <v>0.1542310248217018</v>
+        <v>0.09720734232987673</v>
       </c>
       <c r="T20">
-        <v>0.1542310248217018</v>
+        <v>0.09720734232987674</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.4246063333333334</v>
+        <v>0.2640916666666667</v>
       </c>
       <c r="H21">
-        <v>1.273819</v>
+        <v>0.792275</v>
       </c>
       <c r="I21">
-        <v>0.2178012693086717</v>
+        <v>0.1285193064053396</v>
       </c>
       <c r="J21">
-        <v>0.2178012693086717</v>
+        <v>0.1285193064053396</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>1.269266</v>
       </c>
       <c r="O21">
-        <v>0.06518148056871736</v>
+        <v>0.06176451338279137</v>
       </c>
       <c r="P21">
-        <v>0.06518148056871738</v>
+        <v>0.06176451338279138</v>
       </c>
       <c r="Q21">
-        <v>0.1796461274282222</v>
+        <v>0.1117341911277778</v>
       </c>
       <c r="R21">
-        <v>1.616815146854</v>
+        <v>1.00560772015</v>
       </c>
       <c r="S21">
-        <v>0.01419660920328516</v>
+        <v>0.007937932420419663</v>
       </c>
       <c r="T21">
-        <v>0.01419660920328516</v>
+        <v>0.007937932420419663</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.4246063333333334</v>
+        <v>0.2640916666666667</v>
       </c>
       <c r="H22">
-        <v>1.273819</v>
+        <v>0.792275</v>
       </c>
       <c r="I22">
-        <v>0.2178012693086717</v>
+        <v>0.1285193064053396</v>
       </c>
       <c r="J22">
-        <v>0.2178012693086717</v>
+        <v>0.1285193064053396</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.249793</v>
+        <v>0.273918</v>
       </c>
       <c r="N22">
-        <v>0.749379</v>
+        <v>0.821754</v>
       </c>
       <c r="O22">
-        <v>0.03848336970115394</v>
+        <v>0.03998786379715705</v>
       </c>
       <c r="P22">
-        <v>0.03848336970115394</v>
+        <v>0.03998786379715705</v>
       </c>
       <c r="Q22">
-        <v>0.1060636898223333</v>
+        <v>0.07233946115000001</v>
       </c>
       <c r="R22">
-        <v>0.954573208401</v>
+        <v>0.6510551503499999</v>
       </c>
       <c r="S22">
-        <v>0.008381726768186205</v>
+        <v>0.005139212519841813</v>
       </c>
       <c r="T22">
-        <v>0.008381726768186205</v>
+        <v>0.005139212519841813</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.4246063333333334</v>
+        <v>0.2640916666666667</v>
       </c>
       <c r="H23">
-        <v>1.273819</v>
+        <v>0.792275</v>
       </c>
       <c r="I23">
-        <v>0.2178012693086717</v>
+        <v>0.1285193064053396</v>
       </c>
       <c r="J23">
-        <v>0.2178012693086717</v>
+        <v>0.1285193064053396</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.5239116666666667</v>
+        <v>0.183577</v>
       </c>
       <c r="N23">
-        <v>1.571735</v>
+        <v>0.5507310000000001</v>
       </c>
       <c r="O23">
-        <v>0.0807143769404309</v>
+        <v>0.02679945119448411</v>
       </c>
       <c r="P23">
-        <v>0.08071437694043092</v>
+        <v>0.02679945119448412</v>
       </c>
       <c r="Q23">
-        <v>0.2224562117738889</v>
+        <v>0.04848115589166667</v>
       </c>
       <c r="R23">
-        <v>2.002105905965</v>
+        <v>0.436330403025</v>
       </c>
       <c r="S23">
-        <v>0.01757969374908443</v>
+        <v>0.003444246879558848</v>
       </c>
       <c r="T23">
-        <v>0.01757969374908443</v>
+        <v>0.003444246879558849</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,46 +1907,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.4246063333333334</v>
+        <v>0.2640916666666667</v>
       </c>
       <c r="H24">
-        <v>1.273819</v>
+        <v>0.792275</v>
       </c>
       <c r="I24">
-        <v>0.2178012693086717</v>
+        <v>0.1285193064053396</v>
       </c>
       <c r="J24">
-        <v>0.2178012693086717</v>
+        <v>0.1285193064053396</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>0.4475040000000001</v>
+        <v>0.457755</v>
       </c>
       <c r="N24">
-        <v>1.342512</v>
+        <v>1.373265</v>
       </c>
       <c r="O24">
-        <v>0.06894293224688118</v>
+        <v>0.0668252710390249</v>
       </c>
       <c r="P24">
-        <v>0.06894293224688119</v>
+        <v>0.06682527103902491</v>
       </c>
       <c r="Q24">
-        <v>0.190013032592</v>
+        <v>0.120889280875</v>
       </c>
       <c r="R24">
-        <v>1.710117293328</v>
+        <v>1.088003527875</v>
       </c>
       <c r="S24">
-        <v>0.01501585815323247</v>
+        <v>0.008588337484284307</v>
       </c>
       <c r="T24">
-        <v>0.01501585815323248</v>
+        <v>0.008588337484284309</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.4246063333333334</v>
+        <v>0.2640916666666667</v>
       </c>
       <c r="H25">
-        <v>1.273819</v>
+        <v>0.792275</v>
       </c>
       <c r="I25">
-        <v>0.2178012693086717</v>
+        <v>0.1285193064053396</v>
       </c>
       <c r="J25">
-        <v>0.2178012693086717</v>
+        <v>0.1285193064053396</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.250229</v>
+        <v>0.3305766666666667</v>
       </c>
       <c r="N25">
-        <v>0.7506870000000001</v>
+        <v>0.99173</v>
       </c>
       <c r="O25">
-        <v>0.03855054031518117</v>
+        <v>0.04825916778446416</v>
       </c>
       <c r="P25">
-        <v>0.03855054031518117</v>
+        <v>0.04825916778446416</v>
       </c>
       <c r="Q25">
-        <v>0.1062488181836667</v>
+        <v>0.08730254286111112</v>
       </c>
       <c r="R25">
-        <v>0.9562393636530001</v>
+        <v>0.7857228857499999</v>
       </c>
       <c r="S25">
-        <v>0.008396356613181577</v>
+        <v>0.006202234771358243</v>
       </c>
       <c r="T25">
-        <v>0.008396356613181579</v>
+        <v>0.006202234771358243</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.07436066666666667</v>
+        <v>0.2110656666666667</v>
       </c>
       <c r="H26">
-        <v>0.223082</v>
+        <v>0.633197</v>
       </c>
       <c r="I26">
-        <v>0.03814320775551086</v>
+        <v>0.1027143848511462</v>
       </c>
       <c r="J26">
-        <v>0.03814320775551086</v>
+        <v>0.1027143848511461</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>4.596407333333333</v>
+        <v>5.181113</v>
       </c>
       <c r="N26">
-        <v>13.789222</v>
+        <v>15.543339</v>
       </c>
       <c r="O26">
-        <v>0.7081273002276354</v>
+        <v>0.7563637328020785</v>
       </c>
       <c r="P26">
-        <v>0.7081273002276355</v>
+        <v>0.7563637328020786</v>
       </c>
       <c r="Q26">
-        <v>0.3417919135782222</v>
+        <v>1.093555069420333</v>
       </c>
       <c r="R26">
-        <v>3.076127222204</v>
+        <v>9.841995624782999</v>
       </c>
       <c r="S26">
-        <v>0.02701024672993171</v>
+        <v>0.07768943553848218</v>
       </c>
       <c r="T26">
-        <v>0.02701024672993171</v>
+        <v>0.07768943553848218</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>0.07436066666666667</v>
+        <v>0.2110656666666667</v>
       </c>
       <c r="H27">
-        <v>0.223082</v>
+        <v>0.633197</v>
       </c>
       <c r="I27">
-        <v>0.03814320775551086</v>
+        <v>0.1027143848511462</v>
       </c>
       <c r="J27">
-        <v>0.03814320775551086</v>
+        <v>0.1027143848511461</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>1.269266</v>
       </c>
       <c r="O27">
-        <v>0.06518148056871736</v>
+        <v>0.06176451338279137</v>
       </c>
       <c r="P27">
-        <v>0.06518148056871738</v>
+        <v>0.06176451338279138</v>
       </c>
       <c r="Q27">
-        <v>0.03146115531244445</v>
+        <v>0.08929949148911112</v>
       </c>
       <c r="R27">
-        <v>0.283150397812</v>
+        <v>0.8036954234020001</v>
       </c>
       <c r="S27">
-        <v>0.00248623075514438</v>
+        <v>0.0063441039977438</v>
       </c>
       <c r="T27">
-        <v>0.002486230755144381</v>
+        <v>0.0063441039977438</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,22 +2149,22 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>0.07436066666666667</v>
+        <v>0.2110656666666667</v>
       </c>
       <c r="H28">
-        <v>0.223082</v>
+        <v>0.633197</v>
       </c>
       <c r="I28">
-        <v>0.03814320775551086</v>
+        <v>0.1027143848511462</v>
       </c>
       <c r="J28">
-        <v>0.03814320775551086</v>
+        <v>0.1027143848511461</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.249793</v>
+        <v>0.273918</v>
       </c>
       <c r="N28">
-        <v>0.749379</v>
+        <v>0.821754</v>
       </c>
       <c r="O28">
-        <v>0.03848336970115394</v>
+        <v>0.03998786379715705</v>
       </c>
       <c r="P28">
-        <v>0.03848336970115394</v>
+        <v>0.03998786379715705</v>
       </c>
       <c r="Q28">
-        <v>0.01857477400866667</v>
+        <v>0.057814685282</v>
       </c>
       <c r="R28">
-        <v>0.167172966078</v>
+        <v>0.520332167538</v>
       </c>
       <c r="S28">
-        <v>0.001467879165643247</v>
+        <v>0.004107328831436404</v>
       </c>
       <c r="T28">
-        <v>0.001467879165643247</v>
+        <v>0.004107328831436404</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>0.07436066666666667</v>
+        <v>0.2110656666666667</v>
       </c>
       <c r="H29">
-        <v>0.223082</v>
+        <v>0.633197</v>
       </c>
       <c r="I29">
-        <v>0.03814320775551086</v>
+        <v>0.1027143848511462</v>
       </c>
       <c r="J29">
-        <v>0.03814320775551086</v>
+        <v>0.1027143848511461</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.5239116666666667</v>
+        <v>0.183577</v>
       </c>
       <c r="N29">
-        <v>1.571735</v>
+        <v>0.5507310000000001</v>
       </c>
       <c r="O29">
-        <v>0.0807143769404309</v>
+        <v>0.02679945119448411</v>
       </c>
       <c r="P29">
-        <v>0.08071437694043092</v>
+        <v>0.02679945119448412</v>
       </c>
       <c r="Q29">
-        <v>0.03895842080777778</v>
+        <v>0.03874680188966667</v>
       </c>
       <c r="R29">
-        <v>0.35062578727</v>
+        <v>0.348721217007</v>
       </c>
       <c r="S29">
-        <v>0.003078705248495471</v>
+        <v>0.00275268914378975</v>
       </c>
       <c r="T29">
-        <v>0.003078705248495472</v>
+        <v>0.002752689143789751</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>0.07436066666666667</v>
+        <v>0.2110656666666667</v>
       </c>
       <c r="H30">
-        <v>0.223082</v>
+        <v>0.633197</v>
       </c>
       <c r="I30">
-        <v>0.03814320775551086</v>
+        <v>0.1027143848511462</v>
       </c>
       <c r="J30">
-        <v>0.03814320775551086</v>
+        <v>0.1027143848511461</v>
       </c>
       <c r="K30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L30">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M30">
-        <v>0.4475040000000001</v>
+        <v>0.457755</v>
       </c>
       <c r="N30">
-        <v>1.342512</v>
+        <v>1.373265</v>
       </c>
       <c r="O30">
-        <v>0.06894293224688118</v>
+        <v>0.0668252710390249</v>
       </c>
       <c r="P30">
-        <v>0.06894293224688119</v>
+        <v>0.06682527103902491</v>
       </c>
       <c r="Q30">
-        <v>0.03327669577600001</v>
+        <v>0.096616364245</v>
       </c>
       <c r="R30">
-        <v>0.299490261984</v>
+        <v>0.869547278205</v>
       </c>
       <c r="S30">
-        <v>0.002629704587966898</v>
+        <v>0.006863916607284555</v>
       </c>
       <c r="T30">
-        <v>0.002629704587966899</v>
+        <v>0.006863916607284556</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>0.07436066666666667</v>
+        <v>0.2110656666666667</v>
       </c>
       <c r="H31">
-        <v>0.223082</v>
+        <v>0.633197</v>
       </c>
       <c r="I31">
-        <v>0.03814320775551086</v>
+        <v>0.1027143848511462</v>
       </c>
       <c r="J31">
-        <v>0.03814320775551086</v>
+        <v>0.1027143848511461</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.250229</v>
+        <v>0.3305766666666667</v>
       </c>
       <c r="N31">
-        <v>0.7506870000000001</v>
+        <v>0.99173</v>
       </c>
       <c r="O31">
-        <v>0.03855054031518117</v>
+        <v>0.04825916778446416</v>
       </c>
       <c r="P31">
-        <v>0.03855054031518117</v>
+        <v>0.04825916778446416</v>
       </c>
       <c r="Q31">
-        <v>0.01860719525933334</v>
+        <v>0.06977338453444445</v>
       </c>
       <c r="R31">
-        <v>0.167464757334</v>
+        <v>0.62796046081</v>
       </c>
       <c r="S31">
-        <v>0.001470441268329152</v>
+        <v>0.004956910732409486</v>
       </c>
       <c r="T31">
-        <v>0.001470441268329153</v>
+        <v>0.004956910732409486</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G32">
-        <v>0.1320703333333333</v>
+        <v>0.1692153333333334</v>
       </c>
       <c r="H32">
-        <v>0.396211</v>
+        <v>0.507646</v>
       </c>
       <c r="I32">
-        <v>0.06774530660483011</v>
+        <v>0.08234806326016224</v>
       </c>
       <c r="J32">
-        <v>0.06774530660483012</v>
+        <v>0.08234806326016222</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>4.596407333333333</v>
+        <v>5.181113</v>
       </c>
       <c r="N32">
-        <v>13.789222</v>
+        <v>15.543339</v>
       </c>
       <c r="O32">
-        <v>0.7081273002276354</v>
+        <v>0.7563637328020785</v>
       </c>
       <c r="P32">
-        <v>0.7081273002276355</v>
+        <v>0.7563637328020786</v>
       </c>
       <c r="Q32">
-        <v>0.6070490486491109</v>
+        <v>0.8767237633326668</v>
       </c>
       <c r="R32">
-        <v>5.463441437842</v>
+        <v>7.890513869994001</v>
       </c>
       <c r="S32">
-        <v>0.04797230106917174</v>
+        <v>0.06228508851647801</v>
       </c>
       <c r="T32">
-        <v>0.04797230106917175</v>
+        <v>0.062285088516478</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G33">
-        <v>0.1320703333333333</v>
+        <v>0.1692153333333334</v>
       </c>
       <c r="H33">
-        <v>0.396211</v>
+        <v>0.507646</v>
       </c>
       <c r="I33">
-        <v>0.06774530660483011</v>
+        <v>0.08234806326016224</v>
       </c>
       <c r="J33">
-        <v>0.06774530660483012</v>
+        <v>0.08234806326016222</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>1.269266</v>
       </c>
       <c r="O33">
-        <v>0.06518148056871736</v>
+        <v>0.06176451338279137</v>
       </c>
       <c r="P33">
-        <v>0.06518148056871738</v>
+        <v>0.06176451338279138</v>
       </c>
       <c r="Q33">
-        <v>0.05587746123622222</v>
+        <v>0.07159308975955557</v>
       </c>
       <c r="R33">
-        <v>0.502897151126</v>
+        <v>0.644337807836</v>
       </c>
       <c r="S33">
-        <v>0.004415739386084534</v>
+        <v>0.005086188055279241</v>
       </c>
       <c r="T33">
-        <v>0.004415739386084536</v>
+        <v>0.005086188055279241</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G34">
-        <v>0.1320703333333333</v>
+        <v>0.1692153333333334</v>
       </c>
       <c r="H34">
-        <v>0.396211</v>
+        <v>0.507646</v>
       </c>
       <c r="I34">
-        <v>0.06774530660483011</v>
+        <v>0.08234806326016224</v>
       </c>
       <c r="J34">
-        <v>0.06774530660483012</v>
+        <v>0.08234806326016222</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.249793</v>
+        <v>0.273918</v>
       </c>
       <c r="N34">
-        <v>0.749379</v>
+        <v>0.821754</v>
       </c>
       <c r="O34">
-        <v>0.03848336970115394</v>
+        <v>0.03998786379715705</v>
       </c>
       <c r="P34">
-        <v>0.03848336970115394</v>
+        <v>0.03998786379715705</v>
       </c>
       <c r="Q34">
-        <v>0.03299024477433333</v>
+        <v>0.04635112567600001</v>
       </c>
       <c r="R34">
-        <v>0.296912202969</v>
+        <v>0.417160131084</v>
       </c>
       <c r="S34">
-        <v>0.002607067679591703</v>
+        <v>0.00329292313760704</v>
       </c>
       <c r="T34">
-        <v>0.002607067679591703</v>
+        <v>0.00329292313760704</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G35">
-        <v>0.1320703333333333</v>
+        <v>0.1692153333333334</v>
       </c>
       <c r="H35">
-        <v>0.396211</v>
+        <v>0.507646</v>
       </c>
       <c r="I35">
-        <v>0.06774530660483011</v>
+        <v>0.08234806326016224</v>
       </c>
       <c r="J35">
-        <v>0.06774530660483012</v>
+        <v>0.08234806326016222</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.5239116666666667</v>
+        <v>0.183577</v>
       </c>
       <c r="N35">
-        <v>1.571735</v>
+        <v>0.5507310000000001</v>
       </c>
       <c r="O35">
-        <v>0.0807143769404309</v>
+        <v>0.02679945119448411</v>
       </c>
       <c r="P35">
-        <v>0.08071437694043092</v>
+        <v>0.02679945119448412</v>
       </c>
       <c r="Q35">
-        <v>0.06919318845388887</v>
+        <v>0.03106404324733334</v>
       </c>
       <c r="R35">
-        <v>0.6227386960849999</v>
+        <v>0.2795763892260001</v>
       </c>
       <c r="S35">
-        <v>0.00546802021324732</v>
+        <v>0.002206882902301009</v>
       </c>
       <c r="T35">
-        <v>0.005468020213247323</v>
+        <v>0.002206882902301009</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,46 +2651,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G36">
-        <v>0.1320703333333333</v>
+        <v>0.1692153333333334</v>
       </c>
       <c r="H36">
-        <v>0.396211</v>
+        <v>0.507646</v>
       </c>
       <c r="I36">
-        <v>0.06774530660483011</v>
+        <v>0.08234806326016224</v>
       </c>
       <c r="J36">
-        <v>0.06774530660483012</v>
+        <v>0.08234806326016222</v>
       </c>
       <c r="K36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L36">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M36">
-        <v>0.4475040000000001</v>
+        <v>0.457755</v>
       </c>
       <c r="N36">
-        <v>1.342512</v>
+        <v>1.373265</v>
       </c>
       <c r="O36">
-        <v>0.06894293224688118</v>
+        <v>0.0668252710390249</v>
       </c>
       <c r="P36">
-        <v>0.06894293224688119</v>
+        <v>0.06682527103902491</v>
       </c>
       <c r="Q36">
-        <v>0.059102002448</v>
+        <v>0.07745916491</v>
       </c>
       <c r="R36">
-        <v>0.531918022032</v>
+        <v>0.6971324841900001</v>
       </c>
       <c r="S36">
-        <v>0.004670560083300994</v>
+        <v>0.00550293164689911</v>
       </c>
       <c r="T36">
-        <v>0.004670560083300996</v>
+        <v>0.005502931646899111</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G37">
-        <v>0.1320703333333333</v>
+        <v>0.1692153333333334</v>
       </c>
       <c r="H37">
-        <v>0.396211</v>
+        <v>0.507646</v>
       </c>
       <c r="I37">
-        <v>0.06774530660483011</v>
+        <v>0.08234806326016224</v>
       </c>
       <c r="J37">
-        <v>0.06774530660483012</v>
+        <v>0.08234806326016222</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.250229</v>
+        <v>0.3305766666666667</v>
       </c>
       <c r="N37">
-        <v>0.7506870000000001</v>
+        <v>0.99173</v>
       </c>
       <c r="O37">
-        <v>0.03855054031518117</v>
+        <v>0.04825916778446416</v>
       </c>
       <c r="P37">
-        <v>0.03855054031518117</v>
+        <v>0.04825916778446416</v>
       </c>
       <c r="Q37">
-        <v>0.03304782743966667</v>
+        <v>0.05593864084222223</v>
       </c>
       <c r="R37">
-        <v>0.297430446957</v>
+        <v>0.5034477675800001</v>
       </c>
       <c r="S37">
-        <v>0.002611618173433812</v>
+        <v>0.003974049001597839</v>
       </c>
       <c r="T37">
-        <v>0.002611618173433813</v>
+        <v>0.003974049001597838</v>
       </c>
     </row>
   </sheetData>
